--- a/biology/Botanique/Ulster_Museum/Ulster_Museum.xlsx
+++ b/biology/Botanique/Ulster_Museum/Ulster_Museum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Ulster Museum est un musée généraliste de Belfast en Irlande du Nord fondé au début de XIXe siècle. Il est situé au cœur du jardin botanique de la ville.
 </t>
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le musée est créé en 1821 par la société d'histoire naturelle de Belfast, et est ouvert au public en 1833. La galerie d'art ouvre en 1890. Le musée aménage à son emplacement actuel en 1929 et son nouveau bâtiment est dessiné par James Cumming Wynne. Un agrandissement majeur est effectué entre 1962 et 1964. Ce nouveau bâtiment est un représentant du brutalisme en architecture.
 Depuis les années quarante, le musée a assemblé une intéressante collection d'œuvres d'artistes modernes irlandais.
@@ -544,12 +558,49 @@
           <t>Collections</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le musée dispose de 8 000 m² de salles où sont exposées des pièces provenant des différentes collections. Ses collections couvrent les beaux-arts, les arts appliqués, l'archéologie, l'ethnographie, l'histoire locale, la numismatique, l'archéologie industrielle mais aussi l'histoire naturelle avec la botanique, la zoologie et la géologie.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le musée dispose de 8 000 m² de salles où sont exposées des pièces provenant des différentes collections. Ses collections couvrent les beaux-arts, les arts appliqués, l'archéologie, l'ethnographie, l'histoire locale, la numismatique, l'archéologie industrielle mais aussi l'histoire naturelle avec la botanique, la zoologie et la géologie.
 Dans le domaine de l'histoire naturelle, le musée conserve d'importantes collections d'oiseaux, de mammifères originaires d'Irlande, d'insectes, de mollusque, d'invertébrés marins, de plantes à fleurs, d'algues et de lichens. Il possède aussi une collection de roches, minéraux et fossiles. Sa bibliothèque comprend des ouvrages et des manuscrits relatifs à l'histoire naturelle de l'Irlande.
-Peintures et sculptures
-Le musée expose des œuvres de :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ulster_Museum</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ulster_Museum</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Collections</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Peintures et sculptures</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le musée expose des œuvres de :
 Jean Dubuffet
 Morris Louis
 Anthony Caro
